--- a/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -37710,10 +37710,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>26486</v>
+        <v>26487</v>
       </c>
       <c r="D779" t="n">
-        <v>49252188</v>
+        <v>49253626</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -38190,10 +38190,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>10149</v>
+        <v>10150</v>
       </c>
       <c r="D789" t="n">
-        <v>17454946</v>
+        <v>17457667</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -43278,10 +43278,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>59877</v>
+        <v>59876</v>
       </c>
       <c r="D895" t="n">
-        <v>101804981</v>
+        <v>101802260</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -59206,10 +59206,10 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>10849</v>
+        <v>10848</v>
       </c>
       <c r="D1227" t="n">
-        <v>19736088</v>
+        <v>19734650</v>
       </c>
       <c r="E1227" t="inlineStr">
         <is>
@@ -60934,10 +60934,10 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="D1263" t="n">
-        <v>14115977</v>
+        <v>14120193</v>
       </c>
       <c r="E1263" t="inlineStr">
         <is>
@@ -81046,10 +81046,10 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>39370</v>
+        <v>39371</v>
       </c>
       <c r="D1682" t="n">
-        <v>77832110</v>
+        <v>77832828</v>
       </c>
       <c r="E1682" t="inlineStr">
         <is>
@@ -81094,10 +81094,10 @@
         </is>
       </c>
       <c r="C1683" t="n">
-        <v>15979</v>
+        <v>15978</v>
       </c>
       <c r="D1683" t="n">
-        <v>30932174</v>
+        <v>30931456</v>
       </c>
       <c r="E1683" t="inlineStr">
         <is>
@@ -81526,10 +81526,10 @@
         </is>
       </c>
       <c r="C1692" t="n">
-        <v>15341</v>
+        <v>15342</v>
       </c>
       <c r="D1692" t="n">
-        <v>27298688</v>
+        <v>27299578</v>
       </c>
       <c r="E1692" t="inlineStr">
         <is>
@@ -81574,10 +81574,10 @@
         </is>
       </c>
       <c r="C1693" t="n">
-        <v>21871</v>
+        <v>21870</v>
       </c>
       <c r="D1693" t="n">
-        <v>36725480</v>
+        <v>36724590</v>
       </c>
       <c r="E1693" t="inlineStr">
         <is>
